--- a/botCode/excelDatabase/9class/9class.xlsx
+++ b/botCode/excelDatabase/9class/9class.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\Desktop\работа\excelDatabase\9class\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
   </bookViews>
@@ -463,18 +468,6 @@
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>перерыв 30 минут</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="4"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -885,12 +878,15 @@
   </si>
   <si>
     <t>Понедельник</t>
+  </si>
+  <si>
+    <t>перерыв 30 минут</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1171,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1229,6 +1225,66 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1238,15 +1294,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1256,15 +1303,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1274,46 +1312,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1376,7 +1378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1411,7 +1413,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1622,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:L66"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1643,126 +1645,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="40" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1777,20 +1779,20 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -2094,18 +2096,18 @@
       <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="47"/>
+      <c r="B19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="48"/>
       <c r="D19" s="12"/>
       <c r="E19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="47"/>
+      <c r="F19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="48"/>
       <c r="H19" s="12"/>
       <c r="I19" s="1" t="s">
         <v>39</v>
@@ -2122,65 +2124,65 @@
     </row>
     <row r="20" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="D20" s="10">
         <v>308</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="G20" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="10">
         <v>307</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="47"/>
+      <c r="J20" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="48"/>
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="12"/>
       <c r="E21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="G21" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="10">
         <v>307</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="L21" s="10">
         <v>402</v>
@@ -2201,36 +2203,36 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
+      <c r="A24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
@@ -2275,10 +2277,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="10">
         <v>307</v>
@@ -2287,10 +2289,10 @@
         <v>10</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="10">
         <v>308</v>
@@ -2299,10 +2301,10 @@
         <v>10</v>
       </c>
       <c r="J26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="L26" s="10">
         <v>208</v>
@@ -2313,10 +2315,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="10">
         <v>307</v>
@@ -2325,10 +2327,10 @@
         <v>17</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="10">
         <v>308</v>
@@ -2337,10 +2339,10 @@
         <v>17</v>
       </c>
       <c r="J27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="L27" s="10">
         <v>208</v>
@@ -2363,10 +2365,10 @@
         <v>21</v>
       </c>
       <c r="F28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="H28" s="10">
         <v>208</v>
@@ -2375,10 +2377,10 @@
         <v>21</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" s="10">
         <v>308</v>
@@ -2404,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="10">
         <v>205</v>
@@ -2413,10 +2415,10 @@
         <v>22</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L29" s="10">
         <v>308</v>
@@ -2430,7 +2432,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="10">
         <v>406</v>
@@ -2442,7 +2444,7 @@
         <v>19</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="10">
         <v>205</v>
@@ -2468,7 +2470,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="10">
         <v>406</v>
@@ -2502,7 +2504,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="10">
         <v>205</v>
@@ -2511,10 +2513,10 @@
         <v>36</v>
       </c>
       <c r="F32" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="H32" s="10">
         <v>304</v>
@@ -2533,10 +2535,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="D33" s="10">
         <v>304</v>
@@ -2554,7 +2556,7 @@
         <v>19</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33" s="10">
         <v>205</v>
@@ -2562,7 +2564,7 @@
     </row>
     <row r="34" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2570,13 +2572,13 @@
         <v>308</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="12"/>
       <c r="I34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2584,19 +2586,19 @@
     </row>
     <row r="35" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="12"/>
       <c r="I35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2617,36 +2619,36 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="30"/>
+      <c r="A38" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
     </row>
     <row r="39" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -2706,7 +2708,7 @@
         <v>37</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H40" s="10">
         <v>203</v>
@@ -2718,10 +2720,10 @@
         <v>25</v>
       </c>
       <c r="K40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2729,10 +2731,10 @@
         <v>17</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="D41" s="10">
         <v>304</v>
@@ -2744,7 +2746,7 @@
         <v>37</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H41" s="10">
         <v>203</v>
@@ -2756,10 +2758,10 @@
         <v>25</v>
       </c>
       <c r="K41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2767,10 +2769,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="10">
         <v>307</v>
@@ -2812,7 +2814,7 @@
         <v>28</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H43" s="10">
         <v>203</v>
@@ -2836,10 +2838,10 @@
         <v>25</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>30</v>
@@ -2853,10 +2855,10 @@
         <v>30</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L44" s="10">
         <v>308</v>
@@ -2870,19 +2872,19 @@
         <v>25</v>
       </c>
       <c r="C45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="H45" s="10">
         <v>204</v>
@@ -2890,10 +2892,10 @@
       <c r="I45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45" s="47"/>
+      <c r="J45" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45" s="48"/>
       <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2901,10 +2903,10 @@
         <v>36</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="D46" s="10">
         <v>204</v>
@@ -2925,10 +2927,10 @@
         <v>36</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L46" s="10">
         <v>307</v>
@@ -2942,7 +2944,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="10">
         <v>203</v>
@@ -2963,10 +2965,10 @@
         <v>39</v>
       </c>
       <c r="J47" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="L47" s="10">
         <v>304</v>
@@ -2974,31 +2976,31 @@
     </row>
     <row r="48" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="10">
         <v>307</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="12"/>
       <c r="I48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J48" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="L48" s="10">
         <v>304</v>
@@ -3006,19 +3008,19 @@
     </row>
     <row r="49" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="12"/>
       <c r="E49" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="12"/>
       <c r="I49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -3039,36 +3041,36 @@
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
     </row>
     <row r="52" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="30"/>
+      <c r="A52" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="26"/>
     </row>
     <row r="53" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
@@ -3125,10 +3127,10 @@
         <v>10</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H54" s="10">
         <v>308</v>
@@ -3137,13 +3139,13 @@
         <v>10</v>
       </c>
       <c r="J54" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="L54" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3171,13 +3173,13 @@
         <v>17</v>
       </c>
       <c r="J55" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="L55" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3185,13 +3187,13 @@
         <v>21</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>21</v>
@@ -3209,10 +3211,10 @@
         <v>21</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L56" s="10">
         <v>308</v>
@@ -3223,13 +3225,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>22</v>
@@ -3257,10 +3259,10 @@
         <v>30</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D58" s="10">
         <v>208</v>
@@ -3269,13 +3271,13 @@
         <v>30</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>30</v>
@@ -3298,7 +3300,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="10">
         <v>203</v>
@@ -3307,13 +3309,13 @@
         <v>31</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G59" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>31</v>
@@ -3344,7 +3346,7 @@
         <v>28</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H60" s="10">
         <v>203</v>
@@ -3376,10 +3378,10 @@
       <c r="E61" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" s="47"/>
+      <c r="F61" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="20"/>
       <c r="H61" s="12"/>
       <c r="I61" s="1" t="s">
         <v>39</v>
@@ -3396,61 +3398,61 @@
     </row>
     <row r="62" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="B62" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="48"/>
       <c r="D62" s="12"/>
       <c r="E62" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="H62" s="10">
         <v>501</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J62" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K62" s="47"/>
+      <c r="J62" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="K62" s="48"/>
       <c r="L62" s="12"/>
     </row>
     <row r="63" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="10">
         <v>501</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="12"/>
       <c r="I63" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L63" s="10">
         <v>402</v>
@@ -3471,36 +3473,36 @@
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="23"/>
     </row>
     <row r="66" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="30"/>
+      <c r="A66" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="26"/>
     </row>
     <row r="67" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -3545,10 +3547,10 @@
         <v>10</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D68" s="10">
         <v>208</v>
@@ -3557,13 +3559,13 @@
         <v>10</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G68" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>10</v>
@@ -3595,22 +3597,22 @@
         <v>17</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G69" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L69" s="10">
         <v>204</v>
@@ -3621,10 +3623,10 @@
         <v>21</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70" s="10">
         <v>204</v>
@@ -3645,13 +3647,13 @@
         <v>21</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K70" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L70" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3659,10 +3661,10 @@
         <v>22</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" s="10">
         <v>204</v>
@@ -3671,10 +3673,10 @@
         <v>22</v>
       </c>
       <c r="F71" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="H71" s="10">
         <v>208</v>
@@ -3683,13 +3685,13 @@
         <v>22</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K71" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L71" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="L71" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3697,22 +3699,22 @@
         <v>30</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H72" s="10">
         <v>204</v>
@@ -3735,22 +3737,22 @@
         <v>31</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H73" s="10">
         <v>204</v>
@@ -3788,7 +3790,7 @@
         <v>37</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H74" s="10">
         <v>201</v>
@@ -3797,10 +3799,10 @@
         <v>36</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L74" s="10">
         <v>204</v>
@@ -3820,7 +3822,7 @@
         <v>37</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H75" s="10">
         <v>201</v>
@@ -3829,10 +3831,10 @@
         <v>39</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L75" s="10">
         <v>204</v>
@@ -3840,19 +3842,19 @@
     </row>
     <row r="76" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="12"/>
       <c r="E76" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="12"/>
       <c r="I76" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -3860,50 +3862,43 @@
     </row>
     <row r="77" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="12"/>
       <c r="E77" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="12"/>
       <c r="I77" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="A6:D8"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:L8"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:D8"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:L8"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A65:L65"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
